--- a/data/trans_orig/P14C25-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14C25-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0D743B2-3452-4C68-AF35-17FE73551DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C25025B0-82C5-4371-A592-14531B8CEB20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AC9DFB3F-6E4D-47CB-B242-B64BDC4AE0A3}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4EF1AC74-86C0-4475-8056-C2088897E9B3}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="114">
   <si>
     <t>Población según el tiempo de diagnóstico del otros problemas mentales en 2015 (Tasa respuesta: 0,88%)</t>
   </si>
@@ -86,7 +86,7 @@
     <t>74,14%</t>
   </si>
   <si>
-    <t>33,04%</t>
+    <t>35,0%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -101,7 +101,7 @@
     <t>83,91%</t>
   </si>
   <si>
-    <t>57,2%</t>
+    <t>52,0%</t>
   </si>
   <si>
     <t>11,37%</t>
@@ -110,7 +110,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>48,63%</t>
+    <t>48,39%</t>
   </si>
   <si>
     <t>0%</t>
@@ -122,19 +122,19 @@
     <t>7,08%</t>
   </si>
   <si>
-    <t>35,44%</t>
+    <t>36,02%</t>
   </si>
   <si>
     <t>14,49%</t>
   </si>
   <si>
-    <t>56,19%</t>
+    <t>55,96%</t>
   </si>
   <si>
     <t>9,02%</t>
   </si>
   <si>
-    <t>36,53%</t>
+    <t>41,55%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -143,52 +143,52 @@
     <t>61,58%</t>
   </si>
   <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
   </si>
   <si>
     <t>80,94%</t>
   </si>
   <si>
-    <t>20,0%</t>
+    <t>28,27%</t>
   </si>
   <si>
     <t>69,09%</t>
   </si>
   <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
   </si>
   <si>
     <t>25,89%</t>
   </si>
   <si>
-    <t>64,64%</t>
+    <t>65,6%</t>
   </si>
   <si>
     <t>19,06%</t>
   </si>
   <si>
-    <t>80,0%</t>
+    <t>71,73%</t>
   </si>
   <si>
     <t>23,24%</t>
   </si>
   <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>54,66%</t>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>54,19%</t>
   </si>
   <si>
     <t>12,53%</t>
   </si>
   <si>
-    <t>50,14%</t>
+    <t>51,24%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -197,7 +197,7 @@
     <t>7,67%</t>
   </si>
   <si>
-    <t>38,95%</t>
+    <t>39,01%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -206,7 +206,7 @@
     <t>62,53%</t>
   </si>
   <si>
-    <t>18,81%</t>
+    <t>18,46%</t>
   </si>
   <si>
     <t>42,55%</t>
@@ -215,16 +215,16 @@
     <t>52,7%</t>
   </si>
   <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
   </si>
   <si>
     <t>37,47%</t>
   </si>
   <si>
-    <t>81,19%</t>
+    <t>81,54%</t>
   </si>
   <si>
     <t>57,45%</t>
@@ -233,10 +233,10 @@
     <t>47,3%</t>
   </si>
   <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
   </si>
   <si>
     <t>18,74%</t>
@@ -248,55 +248,55 @@
     <t>45,23%</t>
   </si>
   <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>78,16%</t>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>77,93%</t>
   </si>
   <si>
     <t>67,32%</t>
   </si>
   <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
   </si>
   <si>
     <t>58,85%</t>
   </si>
   <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
   </si>
   <si>
     <t>54,77%</t>
   </si>
   <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
   </si>
   <si>
     <t>32,68%</t>
   </si>
   <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>62,84%</t>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>62,65%</t>
   </si>
   <si>
     <t>41,15%</t>
   </si>
   <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>63,14%</t>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>62,02%</t>
   </si>
   <si>
     <t>17,08%</t>
@@ -311,67 +311,70 @@
     <t>59,58%</t>
   </si>
   <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>76,89%</t>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
   </si>
   <si>
     <t>70,41%</t>
   </si>
   <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
   </si>
   <si>
     <t>64,99%</t>
   </si>
   <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
   </si>
   <si>
     <t>33,59%</t>
   </si>
   <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
   </si>
   <si>
     <t>29,59%</t>
   </si>
   <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
   </si>
   <si>
     <t>31,59%</t>
   </si>
   <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
   </si>
   <si>
     <t>6,84%</t>
   </si>
   <si>
-    <t>22,31%</t>
+    <t>20,95%</t>
   </si>
   <si>
     <t>6,81%</t>
   </si>
   <si>
     <t>3,42%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -786,7 +789,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F67C3B2-8DBA-4F68-ABAC-07280563783B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42669B1F-7606-40DE-B7B7-2FFA1B79358B}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2054,7 +2057,7 @@
         <v>23</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2110,7 +2113,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14C25-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14C25-Habitat-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C25025B0-82C5-4371-A592-14531B8CEB20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{792A318B-8D2C-4E22-A129-DAD0DB17DA9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4EF1AC74-86C0-4475-8056-C2088897E9B3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{95DFE9D9-7C8C-48E1-99BA-89AD6FDDFA6B}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="114">
-  <si>
-    <t>Población según el tiempo de diagnóstico del otros problemas mentales en 2015 (Tasa respuesta: 0,88%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="113">
+  <si>
+    <t>Población según el tiempo de diagnóstico del otros problemas mentales en 2016 (Tasa respuesta: 0,88%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Mas de 4 años</t>
@@ -80,13 +80,13 @@
     <t>Ultimos 12 meses</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>74,14%</t>
   </si>
   <si>
-    <t>35,0%</t>
+    <t>34,62%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -101,7 +101,7 @@
     <t>83,91%</t>
   </si>
   <si>
-    <t>52,0%</t>
+    <t>57,29%</t>
   </si>
   <si>
     <t>11,37%</t>
@@ -110,7 +110,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>48,39%</t>
+    <t>61,74%</t>
   </si>
   <si>
     <t>0%</t>
@@ -122,22 +122,22 @@
     <t>7,08%</t>
   </si>
   <si>
-    <t>36,02%</t>
+    <t>31,59%</t>
   </si>
   <si>
     <t>14,49%</t>
   </si>
   <si>
-    <t>55,96%</t>
+    <t>55,03%</t>
   </si>
   <si>
     <t>9,02%</t>
   </si>
   <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>61,58%</t>
@@ -146,49 +146,49 @@
     <t>24,28%</t>
   </si>
   <si>
-    <t>87,68%</t>
+    <t>87,87%</t>
   </si>
   <si>
     <t>80,94%</t>
   </si>
   <si>
-    <t>28,27%</t>
+    <t>32,88%</t>
   </si>
   <si>
     <t>69,09%</t>
   </si>
   <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
   </si>
   <si>
     <t>25,89%</t>
   </si>
   <si>
-    <t>65,6%</t>
+    <t>64,23%</t>
   </si>
   <si>
     <t>19,06%</t>
   </si>
   <si>
-    <t>71,73%</t>
+    <t>67,12%</t>
   </si>
   <si>
     <t>23,24%</t>
   </si>
   <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>54,19%</t>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>54,63%</t>
   </si>
   <si>
     <t>12,53%</t>
   </si>
   <si>
-    <t>51,24%</t>
+    <t>50,87%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -197,16 +197,16 @@
     <t>7,67%</t>
   </si>
   <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>62,53%</t>
   </si>
   <si>
-    <t>18,46%</t>
+    <t>19,12%</t>
   </si>
   <si>
     <t>42,55%</t>
@@ -215,16 +215,16 @@
     <t>52,7%</t>
   </si>
   <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
   </si>
   <si>
     <t>37,47%</t>
   </si>
   <si>
-    <t>81,54%</t>
+    <t>80,88%</t>
   </si>
   <si>
     <t>57,45%</t>
@@ -233,10 +233,10 @@
     <t>47,3%</t>
   </si>
   <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>81,52%</t>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
   </si>
   <si>
     <t>18,74%</t>
@@ -248,55 +248,55 @@
     <t>45,23%</t>
   </si>
   <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
   </si>
   <si>
     <t>67,32%</t>
   </si>
   <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
   </si>
   <si>
     <t>58,85%</t>
   </si>
   <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>77,66%</t>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
   </si>
   <si>
     <t>54,77%</t>
   </si>
   <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
   </si>
   <si>
     <t>32,68%</t>
   </si>
   <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>61,7%</t>
   </si>
   <si>
     <t>41,15%</t>
   </si>
   <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>62,02%</t>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>62,41%</t>
   </si>
   <si>
     <t>17,08%</t>
@@ -311,61 +311,58 @@
     <t>59,58%</t>
   </si>
   <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
+    <t>41,25%</t>
+  </si>
+  <si>
+    <t>75,15%</t>
   </si>
   <si>
     <t>70,41%</t>
   </si>
   <si>
-    <t>47,61%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
   </si>
   <si>
     <t>64,99%</t>
   </si>
   <si>
-    <t>50,85%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
   </si>
   <si>
     <t>33,59%</t>
   </si>
   <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
   </si>
   <si>
     <t>29,59%</t>
   </si>
   <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>50,5%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
   </si>
   <si>
     <t>6,84%</t>
   </si>
   <si>
-    <t>20,95%</t>
+    <t>23,01%</t>
   </si>
   <si>
     <t>6,81%</t>
@@ -374,7 +371,7 @@
     <t>3,42%</t>
   </si>
   <si>
-    <t>11,88%</t>
+    <t>10,55%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -789,7 +786,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42669B1F-7606-40DE-B7B7-2FFA1B79358B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F152A77B-A898-4004-BEC8-ACE28DF45CC5}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2000,13 +1997,13 @@
         <v>19911</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2021,13 +2018,13 @@
         <v>2155</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -2042,7 +2039,7 @@
         <v>25</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -2051,13 +2048,13 @@
         <v>2155</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2113,7 +2110,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
